--- a/QUADRO PRODUÇÃO PADARIA LOJAS.xlsx
+++ b/QUADRO PRODUÇÃO PADARIA LOJAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WKS-LJ03-CADASTRO2\Documents\GIT-DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AAB5BE3-BB65-46ED-BFC1-89B9C3629B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2863F-9909-4839-A4D9-D740ADC4D708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F957E224-314B-4B2F-A94B-74777E3B24F2}"/>
   </bookViews>
@@ -32855,10 +32855,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4BE1B9-EBAD-441B-905D-D4DF1881A3DD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="L136" sqref="L136:N139"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40185,8 +40188,8 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="27" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="13">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -40199,6 +40202,7 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>